--- a/Input/Medgulf/benefits.xlsx
+++ b/Input/Medgulf/benefits.xlsx
@@ -196,7 +196,7 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Family Care Product</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">AED 1,000,000
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Covered with restrictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Nishma P: Medicines- 0% or 10% or 20% or 30% Co-pay should reflect as selected Consultations- AED 25 or AED 50 as selected Medicines covered in full with $  co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED $</t>
+    <t xml:space="preserve">Medicines covered in full with $  co-pay and diagnostics &amp; lab tests covered in full with NIL co-pay. Consultations covered with AED $</t>
   </si>
   <si>
     <t xml:space="preserve">Nishma P: Co-pay should reflect as selected ●AED 50
@@ -252,7 +252,7 @@
     <t xml:space="preserve">Covered in full with NIL co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full subject to pre-authorization with NILco-pay</t>
+    <t xml:space="preserve">Covered in full subject to pre-authorization with NIL co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">OP- Covered in full with same deductible as selected on consultation 
@@ -309,24 +309,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Pharma nil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/Nil/50</t>
-    </r>
+    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Pharma Nil/Nil/50</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-04</t>
@@ -335,31 +318,31 @@
     <t xml:space="preserve">UAE - Abu Dhabi</t>
   </si>
   <si>
-    <t xml:space="preserve">medgulf</t>
+    <t xml:space="preserve">medgulf_mednet</t>
   </si>
   <si>
     <t xml:space="preserve">Nishma P: Medicines- 0% or 10% or 20% or 30% Co-pay should reflect as selected Consultations- AED 25 or AED 50 as selected</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Physio nil, Pharma 10%/10%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Physio nil, Pharma 20%/20%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Physio nil, Pharma 30%/30%/50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Pharma nil/Nil/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Physio nil, Pharma 10%/10%/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Physio nil, Pharma 20%/20%/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Physio nil, Pharma 30%/30%/25</t>
+    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Physio Nil, Pharma 10%/10%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Physio Nil, Pharma 20%/20%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 50 excess, Diag &amp; Physio Nil, Pharma 30%/30%/50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Pharma Nil/Nil/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Physio Nil, Pharma 10%/10%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Physio Nil, Pharma 20%/20%/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultation AED 25 excess, Diag &amp; Physio Nil, Pharma 30%/30%/25</t>
   </si>
 </sst>
 </file>
@@ -485,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:BI9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AR1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB1" activeCellId="0" sqref="BB1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,7 +660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="223.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
